--- a/permit/doc/规划局表头.xlsx
+++ b/permit/doc/规划局表头.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\房地产统计调查\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="25200" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,68 +27,83 @@
     <t>序号</t>
   </si>
   <si>
+    <t>土地位置</t>
+  </si>
+  <si>
     <t>项目名称</t>
-  </si>
-  <si>
-    <t>土地编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>区域
 （镇街）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开发商名称</t>
-  </si>
-  <si>
-    <t>土地位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>土地出让合同的可建面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面积总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>办公</t>
-  </si>
-  <si>
-    <t>许可内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可建筑面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广东兴发铝业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南庄镇禅港路以西、季华路以北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,22 +120,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -194,38 +234,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,49 +569,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -570,64 +619,64 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>101768.16</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2">
         <v>90438.75</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>17700.37</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>72738.38</v>
       </c>
     </row>
